--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18717330760649</v>
+        <v>2.338576666666667</v>
       </c>
       <c r="H2">
-        <v>1.18717330760649</v>
+        <v>7.01573</v>
       </c>
       <c r="I2">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="J2">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7318279249251149</v>
+        <v>15.85269333333333</v>
       </c>
       <c r="N2">
-        <v>0.7318279249251149</v>
+        <v>47.55808</v>
       </c>
       <c r="O2">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="P2">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="Q2">
-        <v>0.8688065782321428</v>
+        <v>37.07273873315556</v>
       </c>
       <c r="R2">
-        <v>0.8688065782321428</v>
+        <v>333.6546485984</v>
       </c>
       <c r="S2">
-        <v>0.001010385315279292</v>
+        <v>0.02195440251306332</v>
       </c>
       <c r="T2">
-        <v>0.001010385315279292</v>
+        <v>0.02195440251306332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18717330760649</v>
+        <v>2.338576666666667</v>
       </c>
       <c r="H3">
-        <v>1.18717330760649</v>
+        <v>7.01573</v>
       </c>
       <c r="I3">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="J3">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.907545730582189</v>
+        <v>9.934580333333335</v>
       </c>
       <c r="N3">
-        <v>9.907545730582189</v>
+        <v>29.803741</v>
       </c>
       <c r="O3">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="P3">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="Q3">
-        <v>11.76197383523782</v>
+        <v>23.23277776065889</v>
       </c>
       <c r="R3">
-        <v>11.76197383523782</v>
+        <v>209.09499984593</v>
       </c>
       <c r="S3">
-        <v>0.01367867824620469</v>
+        <v>0.01375840501359787</v>
       </c>
       <c r="T3">
-        <v>0.01367867824620469</v>
+        <v>0.01375840501359787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18717330760649</v>
+        <v>2.338576666666667</v>
       </c>
       <c r="H4">
-        <v>1.18717330760649</v>
+        <v>7.01573</v>
       </c>
       <c r="I4">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="J4">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.61297030963074</v>
+        <v>2.849702333333333</v>
       </c>
       <c r="N4">
-        <v>2.61297030963074</v>
+        <v>8.549106999999999</v>
       </c>
       <c r="O4">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674991</v>
       </c>
       <c r="P4">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674992</v>
       </c>
       <c r="Q4">
-        <v>3.10204860516188</v>
+        <v>6.664247383678889</v>
       </c>
       <c r="R4">
-        <v>3.10204860516188</v>
+        <v>59.97822645311</v>
       </c>
       <c r="S4">
-        <v>0.003607551365823921</v>
+        <v>0.00394655411247147</v>
       </c>
       <c r="T4">
-        <v>0.003607551365823921</v>
+        <v>0.003946554112471471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18717330760649</v>
+        <v>2.338576666666667</v>
       </c>
       <c r="H5">
-        <v>1.18717330760649</v>
+        <v>7.01573</v>
       </c>
       <c r="I5">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="J5">
-        <v>0.03868627959232322</v>
+        <v>0.06036918779536898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.7683519901439</v>
+        <v>14.95401766666667</v>
       </c>
       <c r="N5">
-        <v>14.7683519901439</v>
+        <v>44.862053</v>
       </c>
       <c r="O5">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829336</v>
       </c>
       <c r="P5">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829337</v>
       </c>
       <c r="Q5">
-        <v>17.53259328003602</v>
+        <v>34.97111678818779</v>
       </c>
       <c r="R5">
-        <v>17.53259328003602</v>
+        <v>314.7400510936901</v>
       </c>
       <c r="S5">
-        <v>0.02038966466501532</v>
+        <v>0.02070982615623633</v>
       </c>
       <c r="T5">
-        <v>0.02038966466501532</v>
+        <v>0.02070982615623633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6647808064162</v>
+        <v>15.98183966666667</v>
       </c>
       <c r="H6">
-        <v>15.6647808064162</v>
+        <v>47.945519</v>
       </c>
       <c r="I6">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390895</v>
       </c>
       <c r="J6">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390896</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7318279249251149</v>
+        <v>15.85269333333333</v>
       </c>
       <c r="N6">
-        <v>0.7318279249251149</v>
+        <v>47.55808</v>
       </c>
       <c r="O6">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="P6">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="Q6">
-        <v>11.46392403196634</v>
+        <v>253.3552031381689</v>
       </c>
       <c r="R6">
-        <v>11.46392403196634</v>
+        <v>2280.19682824352</v>
       </c>
       <c r="S6">
-        <v>0.01333205892725322</v>
+        <v>0.1500364499237749</v>
       </c>
       <c r="T6">
-        <v>0.01333205892725322</v>
+        <v>0.1500364499237749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6647808064162</v>
+        <v>15.98183966666667</v>
       </c>
       <c r="H7">
-        <v>15.6647808064162</v>
+        <v>47.945519</v>
       </c>
       <c r="I7">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390895</v>
       </c>
       <c r="J7">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390896</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.907545730582189</v>
+        <v>9.934580333333335</v>
       </c>
       <c r="N7">
-        <v>9.907545730582189</v>
+        <v>29.803741</v>
       </c>
       <c r="O7">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="P7">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="Q7">
-        <v>155.1995321991147</v>
+        <v>158.7728700429533</v>
       </c>
       <c r="R7">
-        <v>155.1995321991147</v>
+        <v>1428.955830386579</v>
       </c>
       <c r="S7">
-        <v>0.1804904937429025</v>
+        <v>0.09402497943751421</v>
       </c>
       <c r="T7">
-        <v>0.1804904937429025</v>
+        <v>0.09402497943751423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.6647808064162</v>
+        <v>15.98183966666667</v>
       </c>
       <c r="H8">
-        <v>15.6647808064162</v>
+        <v>47.945519</v>
       </c>
       <c r="I8">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390895</v>
       </c>
       <c r="J8">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390896</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.61297030963074</v>
+        <v>2.849702333333333</v>
       </c>
       <c r="N8">
-        <v>2.61297030963074</v>
+        <v>8.549106999999999</v>
       </c>
       <c r="O8">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674991</v>
       </c>
       <c r="P8">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674992</v>
       </c>
       <c r="Q8">
-        <v>40.93160715403901</v>
+        <v>45.54348578905922</v>
       </c>
       <c r="R8">
-        <v>40.93160715403901</v>
+        <v>409.891372101533</v>
       </c>
       <c r="S8">
-        <v>0.04760172843462453</v>
+        <v>0.02697076215647253</v>
       </c>
       <c r="T8">
-        <v>0.04760172843462453</v>
+        <v>0.02697076215647254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.6647808064162</v>
+        <v>15.98183966666667</v>
       </c>
       <c r="H9">
-        <v>15.6647808064162</v>
+        <v>47.945519</v>
       </c>
       <c r="I9">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390895</v>
       </c>
       <c r="J9">
-        <v>0.5104664046492774</v>
+        <v>0.4125632030390896</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.7683519901439</v>
+        <v>14.95401766666667</v>
       </c>
       <c r="N9">
-        <v>14.7683519901439</v>
+        <v>44.862053</v>
       </c>
       <c r="O9">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829336</v>
       </c>
       <c r="P9">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829337</v>
       </c>
       <c r="Q9">
-        <v>231.3429967976047</v>
+        <v>238.9927127211675</v>
       </c>
       <c r="R9">
-        <v>231.3429967976047</v>
+        <v>2150.934414490507</v>
       </c>
       <c r="S9">
-        <v>0.2690421235444972</v>
+        <v>0.1415310115213279</v>
       </c>
       <c r="T9">
-        <v>0.2690421235444972</v>
+        <v>0.1415310115213279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4734095343342</v>
+        <v>4.530968000000001</v>
       </c>
       <c r="H10">
-        <v>2.4734095343342</v>
+        <v>13.592904</v>
       </c>
       <c r="I10">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="J10">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7318279249251149</v>
+        <v>15.85269333333333</v>
       </c>
       <c r="N10">
-        <v>0.7318279249251149</v>
+        <v>47.55808</v>
       </c>
       <c r="O10">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="P10">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="Q10">
-        <v>1.810110167001793</v>
+        <v>71.82804620714667</v>
       </c>
       <c r="R10">
-        <v>1.810110167001793</v>
+        <v>646.45241586432</v>
       </c>
       <c r="S10">
-        <v>0.00210508158846799</v>
+        <v>0.04253642682050598</v>
       </c>
       <c r="T10">
-        <v>0.00210508158846799</v>
+        <v>0.04253642682050598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.4734095343342</v>
+        <v>4.530968000000001</v>
       </c>
       <c r="H11">
-        <v>2.4734095343342</v>
+        <v>13.592904</v>
       </c>
       <c r="I11">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="J11">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.907545730582189</v>
+        <v>9.934580333333335</v>
       </c>
       <c r="N11">
-        <v>9.907545730582189</v>
+        <v>29.803741</v>
       </c>
       <c r="O11">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="P11">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="Q11">
-        <v>24.50541807187409</v>
+        <v>45.01326558376268</v>
       </c>
       <c r="R11">
-        <v>24.50541807187409</v>
+        <v>405.119390253864</v>
       </c>
       <c r="S11">
-        <v>0.02849876507033718</v>
+        <v>0.02665676680016969</v>
       </c>
       <c r="T11">
-        <v>0.02849876507033718</v>
+        <v>0.02665676680016969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.4734095343342</v>
+        <v>4.530968000000001</v>
       </c>
       <c r="H12">
-        <v>2.4734095343342</v>
+        <v>13.592904</v>
       </c>
       <c r="I12">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="J12">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.61297030963074</v>
+        <v>2.849702333333333</v>
       </c>
       <c r="N12">
-        <v>2.61297030963074</v>
+        <v>8.549106999999999</v>
       </c>
       <c r="O12">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674991</v>
       </c>
       <c r="P12">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674992</v>
       </c>
       <c r="Q12">
-        <v>6.462945676772859</v>
+        <v>12.91191008185867</v>
       </c>
       <c r="R12">
-        <v>6.462945676772859</v>
+        <v>116.207190736728</v>
       </c>
       <c r="S12">
-        <v>0.007516132553400472</v>
+        <v>0.007646407598586306</v>
       </c>
       <c r="T12">
-        <v>0.007516132553400472</v>
+        <v>0.007646407598586307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.4734095343342</v>
+        <v>4.530968000000001</v>
       </c>
       <c r="H13">
-        <v>2.4734095343342</v>
+        <v>13.592904</v>
       </c>
       <c r="I13">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="J13">
-        <v>0.08060071109961987</v>
+        <v>0.1169646742762937</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.7683519901439</v>
+        <v>14.95401766666667</v>
       </c>
       <c r="N13">
-        <v>14.7683519901439</v>
+        <v>44.862053</v>
       </c>
       <c r="O13">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829336</v>
       </c>
       <c r="P13">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829337</v>
       </c>
       <c r="Q13">
-        <v>36.52818261882538</v>
+        <v>67.75617551910135</v>
       </c>
       <c r="R13">
-        <v>36.52818261882538</v>
+        <v>609.805579671912</v>
       </c>
       <c r="S13">
-        <v>0.04248073188741423</v>
+        <v>0.04012507305703176</v>
       </c>
       <c r="T13">
-        <v>0.04248073188741423</v>
+        <v>0.04012507305703177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.3618288166965</v>
+        <v>15.886534</v>
       </c>
       <c r="H14">
-        <v>11.3618288166965</v>
+        <v>47.659602</v>
       </c>
       <c r="I14">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892478</v>
       </c>
       <c r="J14">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7318279249251149</v>
+        <v>15.85269333333333</v>
       </c>
       <c r="N14">
-        <v>0.7318279249251149</v>
+        <v>47.55808</v>
       </c>
       <c r="O14">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="P14">
-        <v>0.02611740715123688</v>
+        <v>0.363669005908797</v>
       </c>
       <c r="Q14">
-        <v>8.314903606277374</v>
+        <v>251.8443516315733</v>
       </c>
       <c r="R14">
-        <v>8.314903606277374</v>
+        <v>2266.59916468416</v>
       </c>
       <c r="S14">
-        <v>0.009669881320236381</v>
+        <v>0.1491417266514528</v>
       </c>
       <c r="T14">
-        <v>0.009669881320236381</v>
+        <v>0.1491417266514529</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.3618288166965</v>
+        <v>15.886534</v>
       </c>
       <c r="H15">
-        <v>11.3618288166965</v>
+        <v>47.659602</v>
       </c>
       <c r="I15">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892478</v>
       </c>
       <c r="J15">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.907545730582189</v>
+        <v>9.934580333333335</v>
       </c>
       <c r="N15">
-        <v>9.907545730582189</v>
+        <v>29.803741</v>
       </c>
       <c r="O15">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="P15">
-        <v>0.3535795736977261</v>
+        <v>0.2279044246915194</v>
       </c>
       <c r="Q15">
-        <v>112.5678385844671</v>
+        <v>157.8260482412313</v>
       </c>
       <c r="R15">
-        <v>112.5678385844671</v>
+        <v>1420.434434171082</v>
       </c>
       <c r="S15">
-        <v>0.1309116366382818</v>
+        <v>0.09346427344023768</v>
       </c>
       <c r="T15">
-        <v>0.1309116366382818</v>
+        <v>0.09346427344023769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.3618288166965</v>
+        <v>15.886534</v>
       </c>
       <c r="H16">
-        <v>11.3618288166965</v>
+        <v>47.659602</v>
       </c>
       <c r="I16">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892478</v>
       </c>
       <c r="J16">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.61297030963074</v>
+        <v>2.849702333333333</v>
       </c>
       <c r="N16">
-        <v>2.61297030963074</v>
+        <v>8.549106999999999</v>
       </c>
       <c r="O16">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674991</v>
       </c>
       <c r="P16">
-        <v>0.09325144221259754</v>
+        <v>0.06537364931674992</v>
       </c>
       <c r="Q16">
-        <v>29.68812136113492</v>
+        <v>45.27189300837933</v>
       </c>
       <c r="R16">
-        <v>29.68812136113492</v>
+        <v>407.447037075414</v>
       </c>
       <c r="S16">
-        <v>0.03452602985874862</v>
+        <v>0.02680992544921961</v>
       </c>
       <c r="T16">
-        <v>0.03452602985874862</v>
+        <v>0.02680992544921962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.3618288166965</v>
+        <v>15.886534</v>
       </c>
       <c r="H17">
-        <v>11.3618288166965</v>
+        <v>47.659602</v>
       </c>
       <c r="I17">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892478</v>
       </c>
       <c r="J17">
-        <v>0.3702466046587795</v>
+        <v>0.4101029348892479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.7683519901439</v>
+        <v>14.95401766666667</v>
       </c>
       <c r="N17">
-        <v>14.7683519901439</v>
+        <v>44.862053</v>
       </c>
       <c r="O17">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829336</v>
       </c>
       <c r="P17">
-        <v>0.5270515769384394</v>
+        <v>0.3430529200829337</v>
       </c>
       <c r="Q17">
-        <v>167.7954872167341</v>
+        <v>237.5675100981007</v>
       </c>
       <c r="R17">
-        <v>167.7954872167341</v>
+        <v>2138.107590882906</v>
       </c>
       <c r="S17">
-        <v>0.1951390568415127</v>
+        <v>0.1406870093483377</v>
       </c>
       <c r="T17">
-        <v>0.1951390568415127</v>
+        <v>0.1406870093483377</v>
       </c>
     </row>
   </sheetData>
